--- a/resources/data/GUIA NOME.xlsx
+++ b/resources/data/GUIA NOME.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,123 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DER-65
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consorcio LBR GERIBELLO NOVA ENGEVIX
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>59.293.439/0001-00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LBR 40% GERIBELLO 30% NOVA ENGEVIX 30%
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COHAB-9
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consorcio GERENCIADOR HABITACIONAL
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>58.848.291/0001-52</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  LBR 40% GOS 20% JOHELY 15% GLOBO 15% ENGENPLAN 10% 
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IR, PIS, COFINS, CSLL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPOBRAS5
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consorcio GERENCIADOR MOB URB
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>59.533.494/0001-12</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  LBR 40% MODERA 30% MOBTEC 30%
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>IR, PIS, COFINS, CSLL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Consórcio HR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>51.773.856/0001-30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>REP 50% HABRAS 50%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>IR, PIS, COFINS, CSLL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
